--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC88C2-64DF-4EAB-9AF6-E87B49D12E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1562292-0065-4171-A2FE-10D3723C4D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53220" yWindow="975" windowWidth="20055" windowHeight="17970" activeTab="1" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="6960" yWindow="1515" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
   <si>
     <t>cc</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>3=press btn on/off no delay</t>
+  </si>
+  <si>
+    <t>setdefault</t>
   </si>
 </sst>
 </file>
@@ -631,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,8 +1032,11 @@
         <f t="shared" si="0"/>
         <v>0|3</v>
       </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -2772,7 +2778,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$60</xm:f>
+            <xm:f>functions!$A$2:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J49 J51</xm:sqref>
         </x14:dataValidation>
@@ -2784,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,31 +2848,36 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
     </row>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1562292-0065-4171-A2FE-10D3723C4D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE51CB6-8F26-46A5-B0AF-AC43373248B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1515" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="8910" yWindow="780" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="76">
   <si>
     <t>cc</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>setdefault</t>
+  </si>
+  <si>
+    <t>cwxLoopBtnL</t>
+  </si>
+  <si>
+    <t>cwxLoopBtnR</t>
   </si>
 </sst>
 </file>
@@ -634,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,8 +1347,11 @@
         <f t="shared" si="0"/>
         <v>6|16</v>
       </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
       <c r="K16" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
@@ -1383,8 +1392,11 @@
         <f t="shared" si="0"/>
         <v>6|17</v>
       </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="8">
         <v>0</v>
@@ -1425,8 +1437,11 @@
         <f t="shared" si="0"/>
         <v>6|18</v>
       </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
@@ -1467,8 +1482,11 @@
         <f t="shared" si="0"/>
         <v>6|19</v>
       </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="8">
         <v>0</v>
@@ -2277,8 +2295,11 @@
         <f t="shared" si="0"/>
         <v>7|16</v>
       </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
       <c r="K38" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="8">
         <v>0</v>
@@ -2313,8 +2334,11 @@
         <f t="shared" si="0"/>
         <v>7|17</v>
       </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="8">
         <v>0</v>
@@ -2349,8 +2373,11 @@
         <f t="shared" si="0"/>
         <v>7|18</v>
       </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
       <c r="K40" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="8">
         <v>0</v>
@@ -2385,8 +2412,11 @@
         <f t="shared" si="0"/>
         <v>7|19</v>
       </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="8">
         <v>0</v>
@@ -2778,9 +2808,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$61</xm:f>
+            <xm:f>functions!$A$2:$A$63</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J49 J51</xm:sqref>
+          <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2790,14 +2820,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2813,76 +2844,87 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2891,7 +2933,7 @@
   <dimension ref="A14:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE51CB6-8F26-46A5-B0AF-AC43373248B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9B014-B4E6-40C3-9830-16486516C80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8910" yWindow="780" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="76">
   <si>
     <t>cc</t>
   </si>
@@ -641,7 +641,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,9 +1973,6 @@
       <c r="I30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2|12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>70</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9B014-B4E6-40C3-9830-16486516C80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFE2C2-9D7F-492F-AC1F-9818E45D51C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="780" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="2070" yWindow="1035" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFE2C2-9D7F-492F-AC1F-9818E45D51C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AD4F4-3435-421B-9F20-192C01055E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1035" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="13875" yWindow="2445" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="77">
   <si>
     <t>cc</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>cwxLoopBtnR</t>
+  </si>
+  <si>
+    <t>configMode</t>
   </si>
 </sst>
 </file>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,8 +2019,11 @@
         <f t="shared" si="0"/>
         <v>1|3</v>
       </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
       <c r="K31" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" s="8">
         <v>0</v>
@@ -2805,7 +2811,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$63</xm:f>
+            <xm:f>functions!$A$2:$A$64</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -2817,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,81 +2847,86 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
     </row>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AD4F4-3435-421B-9F20-192C01055E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A8B6A-EABE-4C4A-AA69-E2CB3D16F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="2445" windowWidth="20055" windowHeight="17970" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="12150" yWindow="2115" windowWidth="20055" windowHeight="17970" activeTab="1" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
-    <sheet name="functions" sheetId="6" r:id="rId2"/>
-    <sheet name="Legegend" sheetId="5" r:id="rId3"/>
+    <sheet name="midimap2" sheetId="7" r:id="rId2"/>
+    <sheet name="functions" sheetId="6" r:id="rId3"/>
+    <sheet name="Legegend" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="78">
   <si>
     <t>cc</t>
   </si>
@@ -267,6 +268,9 @@
   </si>
   <si>
     <t>configMode</t>
+  </si>
+  <si>
+    <t>toggleLayer</t>
   </si>
 </sst>
 </file>
@@ -643,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,6 +1981,9 @@
         <f t="shared" si="0"/>
         <v>2|12</v>
       </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
       <c r="K30" s="8">
         <v>1</v>
       </c>
@@ -2811,7 +2818,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$64</xm:f>
+            <xm:f>functions!$A$2:$A$65</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -2822,11 +2829,2196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F356390-C5A1-4956-8118-11B48E316739}">
+  <dimension ref="A1:R51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f>E1&amp;"|"&amp;F1</f>
+        <v>1|8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f t="shared" ref="I2:I51" si="0">E2&amp;"|"&amp;F2</f>
+        <v>1|9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <v>127</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|8</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>127</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>127</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>127</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>127</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>127</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|15</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>127</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|16</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>127</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>127</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>127</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3">
+        <v>127</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
+        <v>127</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>127</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="8">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3">
+        <v>127</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3">
+        <v>127</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3">
+        <v>127</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>127</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3">
+        <v>127</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3">
+        <v>127</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>127</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|8</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>127</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>127</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="8">
+        <v>2</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>127</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3">
+        <v>127</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3">
+        <v>127</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|15</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3">
+        <v>16</v>
+      </c>
+      <c r="G33" s="3">
+        <v>127</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|16</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3">
+        <v>127</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="8">
+        <v>2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3">
+        <v>127</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>127</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="3">
+        <v>127</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="8">
+        <v>2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3">
+        <v>127</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>17</v>
+      </c>
+      <c r="G39" s="3">
+        <v>127</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="8">
+        <v>2</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3">
+        <v>127</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="8">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3">
+        <v>127</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="8">
+        <v>2</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="3">
+        <v>127</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3">
+        <v>127</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3">
+        <v>127</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3">
+        <v>35</v>
+      </c>
+      <c r="G45" s="3">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|35</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3">
+        <v>35</v>
+      </c>
+      <c r="G46" s="3">
+        <v>127</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|35</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3">
+        <v>127</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|17</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3">
+        <v>17</v>
+      </c>
+      <c r="G48" s="3">
+        <v>127</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|17</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3">
+        <v>18</v>
+      </c>
+      <c r="G49" s="3">
+        <v>127</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|18</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3">
+        <v>18</v>
+      </c>
+      <c r="G50" s="3">
+        <v>127</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|18</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A2D9150-9195-4181-AAD2-A5D7BB7BA7B9}">
+          <x14:formula1>
+            <xm:f>functions!$A$2:$A$65</xm:f>
+          </x14:formula1>
+          <xm:sqref>J51 J1:J49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,26 +5099,31 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2936,7 +5133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFF5AF-C18B-436A-88DE-EE499B0D6623}">
   <dimension ref="A14:E19"/>
   <sheetViews>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A8B6A-EABE-4C4A-AA69-E2CB3D16F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705757E-9278-4CF6-BE09-0D6ADEC9A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="2115" windowWidth="20055" windowHeight="17970" activeTab="1" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="14835" yWindow="930" windowWidth="25545" windowHeight="14775" activeTab="2" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
     <sheet name="midimap2" sheetId="7" r:id="rId2"/>
     <sheet name="functions" sheetId="6" r:id="rId3"/>
-    <sheet name="Legegend" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="88">
   <si>
     <t>cc</t>
   </si>
@@ -177,33 +176,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Funkmap</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>maped_name</t>
-  </si>
-  <si>
-    <t>btntype</t>
-  </si>
-  <si>
-    <t>1=toggle</t>
-  </si>
-  <si>
-    <t>2= led off 500ms</t>
-  </si>
-  <si>
-    <t>groupid</t>
-  </si>
-  <si>
-    <t>0 no group</t>
-  </si>
-  <si>
-    <t>0=no btn</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -252,12 +224,6 @@
     <t>monitor</t>
   </si>
   <si>
-    <t>4= led off 500ms, btn off 500ms</t>
-  </si>
-  <si>
-    <t>3=press btn on/off no delay</t>
-  </si>
-  <si>
     <t>setdefault</t>
   </si>
   <si>
@@ -271,6 +237,69 @@
   </si>
   <si>
     <t>toggleLayer</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>Modify the AGC slider-Value. Does not change the "Slow/Med/Fast" setting</t>
+  </si>
+  <si>
+    <t>Fire CW msgs while Right Loop-Btn is selected using Btns1-4</t>
+  </si>
+  <si>
+    <t>Fire CW msgs while Left Loop-Btn is selected using Btns1-4</t>
+  </si>
+  <si>
+    <t>Use the crossfade to move Slice 1 Audio to the left or Slice 2 Audio to the right. Other audio Slice-Pan-Setting will be untouched</t>
+  </si>
+  <si>
+    <t>Jump through the different predefined Fiters. Btn press= next filter</t>
+  </si>
+  <si>
+    <t>Modify the Filter Bandwith with a poti</t>
+  </si>
+  <si>
+    <t>Jump through the different predefined Modes. Btn press= next filter</t>
+  </si>
+  <si>
+    <t>Switch on/of MON</t>
+  </si>
+  <si>
+    <t>Jump through the predefined Panoarama-Fall BW</t>
+  </si>
+  <si>
+    <t>Change the RIT of Slice 0 or 1 with left or right Tempo Fader</t>
+  </si>
+  <si>
+    <t>Remove both Slices and create new Slice A and Slice B</t>
+  </si>
+  <si>
+    <t>Jump through the different predefined step width to make the frequency change</t>
+  </si>
+  <si>
+    <t>Toggle the controllers actor settings between layer 1 and layer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle between RX_A and TX-Ant of Slice A or Toggle between RX_B and TX-Ant of Slice B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle between TX-Ant1/2 of Slice A or between Ant2/1 of Slice B </t>
+  </si>
+  <si>
+    <t>Change VFO of Slice A / B</t>
+  </si>
+  <si>
+    <t>Change Audio Volume aof Slice A / B</t>
+  </si>
+  <si>
+    <t>Set TX to Slice A and MOX or Set TX to Slice B and MOX</t>
+  </si>
+  <si>
+    <t>Center the panaroma window to the Frequency of Slice A or Slice B</t>
+  </si>
+  <si>
+    <t>Enable/Disable config mode to select up to 8 different config&lt;nr&gt;-jsons using Hot CUE/Loop and Btns1-4</t>
   </si>
 </sst>
 </file>
@@ -648,7 +677,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J1:J1048576"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +718,7 @@
         <v>1|8</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4">
         <v>0</v>
@@ -721,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -734,7 +763,7 @@
         <v>1|9</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
@@ -779,7 +808,7 @@
         <v>1|10</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -823,6 +852,9 @@
         <f t="shared" si="0"/>
         <v>1|8</v>
       </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
@@ -866,7 +898,7 @@
         <v>1|5</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K5" s="8">
         <v>3</v>
@@ -911,7 +943,7 @@
         <v>1|6</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K6" s="8">
         <v>2</v>
@@ -956,7 +988,7 @@
         <v>1|7</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K7" s="8">
         <v>2</v>
@@ -1001,7 +1033,7 @@
         <v>1|12</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -1046,7 +1078,7 @@
         <v>0|3</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -1175,7 +1207,7 @@
         <v>6|0</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K12" s="8">
         <v>2</v>
@@ -1220,7 +1252,7 @@
         <v>6|1</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K13" s="8">
         <v>2</v>
@@ -1265,7 +1297,7 @@
         <v>6|2</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
@@ -1310,7 +1342,7 @@
         <v>6|3</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K15" s="8">
         <v>2</v>
@@ -1355,7 +1387,7 @@
         <v>6|16</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K16" s="8">
         <v>2</v>
@@ -1400,7 +1432,7 @@
         <v>6|17</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K17" s="8">
         <v>2</v>
@@ -1445,7 +1477,7 @@
         <v>6|18</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K18" s="8">
         <v>2</v>
@@ -1490,7 +1522,7 @@
         <v>6|19</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K19" s="8">
         <v>2</v>
@@ -1535,7 +1567,7 @@
         <v>0|3</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -1580,7 +1612,7 @@
         <v>1|0</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -1625,7 +1657,7 @@
         <v>1|1</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -1670,7 +1702,7 @@
         <v>2|8</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1702,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -1715,7 +1747,7 @@
         <v>2|9</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -1760,7 +1792,7 @@
         <v>2|10</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -1804,6 +1836,9 @@
         <f t="shared" si="0"/>
         <v>2|8</v>
       </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
       <c r="K26" s="8">
         <v>0</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>2|5</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K27" s="8">
         <v>3</v>
@@ -1892,7 +1927,7 @@
         <v>2|6</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K28" s="8">
         <v>2</v>
@@ -1937,7 +1972,7 @@
         <v>2|7</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K29" s="8">
         <v>2</v>
@@ -1982,7 +2017,7 @@
         <v>2|12</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -2027,7 +2062,7 @@
         <v>1|3</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K31" s="8">
         <v>2</v>
@@ -2150,7 +2185,7 @@
         <v>7|0</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K34" s="8">
         <v>2</v>
@@ -2189,7 +2224,7 @@
         <v>7|1</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K35" s="8">
         <v>2</v>
@@ -2228,7 +2263,7 @@
         <v>7|2</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K36" s="8">
         <v>1</v>
@@ -2267,7 +2302,7 @@
         <v>7|3</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K37" s="8">
         <v>2</v>
@@ -2306,7 +2341,7 @@
         <v>7|16</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K38" s="8">
         <v>2</v>
@@ -2345,7 +2380,7 @@
         <v>7|17</v>
       </c>
       <c r="J39" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K39" s="8">
         <v>2</v>
@@ -2384,7 +2419,7 @@
         <v>7|18</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K40" s="8">
         <v>2</v>
@@ -2423,7 +2458,7 @@
         <v>7|19</v>
       </c>
       <c r="J41" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K41" s="8">
         <v>2</v>
@@ -2462,7 +2497,7 @@
         <v>0|4</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K42" s="8">
         <v>0</v>
@@ -2501,7 +2536,7 @@
         <v>2|0</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K43" s="8">
         <v>0</v>
@@ -2546,7 +2581,7 @@
         <v>2|1</v>
       </c>
       <c r="J44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K44" s="8">
         <v>0</v>
@@ -2801,7 +2836,7 @@
         <v>0|0</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K51" s="8">
         <v>0</v>
@@ -2818,7 +2853,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$65</xm:f>
+            <xm:f>functions!$A$2:$A$66</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -2832,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F356390-C5A1-4956-8118-11B48E316739}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2909,7 @@
         <v>1|8</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4">
         <v>0</v>
@@ -2906,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2919,7 +2954,7 @@
         <v>1|9</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
@@ -2964,7 +2999,7 @@
         <v>1|10</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -3008,6 +3043,9 @@
         <f t="shared" si="0"/>
         <v>1|8</v>
       </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
@@ -3051,7 +3089,7 @@
         <v>1|5</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K5" s="8">
         <v>3</v>
@@ -3096,7 +3134,7 @@
         <v>1|6</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K6" s="8">
         <v>2</v>
@@ -3141,7 +3179,7 @@
         <v>1|7</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K7" s="8">
         <v>2</v>
@@ -3186,7 +3224,7 @@
         <v>1|12</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -3231,7 +3269,7 @@
         <v>0|3</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -3360,7 +3398,7 @@
         <v>6|0</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K12" s="8">
         <v>2</v>
@@ -3405,7 +3443,7 @@
         <v>6|1</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K13" s="8">
         <v>2</v>
@@ -3450,7 +3488,7 @@
         <v>6|2</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
@@ -3495,7 +3533,7 @@
         <v>6|3</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K15" s="8">
         <v>2</v>
@@ -3540,7 +3578,7 @@
         <v>6|16</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K16" s="8">
         <v>2</v>
@@ -3585,7 +3623,7 @@
         <v>6|17</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K17" s="8">
         <v>2</v>
@@ -3630,7 +3668,7 @@
         <v>6|18</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K18" s="8">
         <v>2</v>
@@ -3675,7 +3713,7 @@
         <v>6|19</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K19" s="8">
         <v>2</v>
@@ -3720,7 +3758,7 @@
         <v>0|3</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -3765,7 +3803,7 @@
         <v>1|0</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -3810,7 +3848,7 @@
         <v>1|1</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -3855,7 +3893,7 @@
         <v>2|8</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -3887,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -3900,7 +3938,7 @@
         <v>2|9</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -3945,7 +3983,7 @@
         <v>2|10</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -3989,6 +4027,9 @@
         <f t="shared" si="0"/>
         <v>2|8</v>
       </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
       <c r="K26" s="8">
         <v>0</v>
       </c>
@@ -4032,7 +4073,7 @@
         <v>2|5</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K27" s="8">
         <v>3</v>
@@ -4077,7 +4118,7 @@
         <v>2|6</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K28" s="8">
         <v>2</v>
@@ -4122,7 +4163,7 @@
         <v>2|7</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K29" s="8">
         <v>2</v>
@@ -4167,7 +4208,7 @@
         <v>2|12</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -4212,7 +4253,7 @@
         <v>1|3</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K31" s="8">
         <v>2</v>
@@ -4335,7 +4376,7 @@
         <v>7|0</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K34" s="8">
         <v>2</v>
@@ -4374,7 +4415,7 @@
         <v>7|1</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K35" s="8">
         <v>2</v>
@@ -4413,7 +4454,7 @@
         <v>7|2</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K36" s="8">
         <v>1</v>
@@ -4452,7 +4493,7 @@
         <v>7|3</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K37" s="8">
         <v>2</v>
@@ -4491,7 +4532,7 @@
         <v>7|16</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K38" s="8">
         <v>2</v>
@@ -4530,7 +4571,7 @@
         <v>7|17</v>
       </c>
       <c r="J39" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K39" s="8">
         <v>2</v>
@@ -4569,7 +4610,7 @@
         <v>7|18</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K40" s="8">
         <v>2</v>
@@ -4608,7 +4649,7 @@
         <v>7|19</v>
       </c>
       <c r="J41" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K41" s="8">
         <v>2</v>
@@ -4647,7 +4688,7 @@
         <v>0|4</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K42" s="8">
         <v>0</v>
@@ -4686,7 +4727,7 @@
         <v>2|0</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K43" s="8">
         <v>0</v>
@@ -4731,7 +4772,7 @@
         <v>2|1</v>
       </c>
       <c r="J44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K44" s="8">
         <v>0</v>
@@ -4986,7 +5027,7 @@
         <v>0|0</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K51" s="8">
         <v>0</v>
@@ -5003,7 +5044,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A2D9150-9195-4181-AAD2-A5D7BB7BA7B9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$65</xm:f>
+            <xm:f>functions!$A$2:$A$66</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -5015,10 +5056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,172 +5068,173 @@
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFF5AF-C18B-436A-88DE-EE499B0D6623}">
-  <dimension ref="A14:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705757E-9278-4CF6-BE09-0D6ADEC9A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F085E56-5D81-4888-86BA-1691E4E9A276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="930" windowWidth="25545" windowHeight="14775" activeTab="2" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="16320" yWindow="510" windowWidth="25545" windowHeight="14775" activeTab="1" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="88">
   <si>
     <t>cc</t>
   </si>
@@ -677,7 +677,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F356390-C5A1-4956-8118-11B48E316739}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,9 +3043,6 @@
         <f t="shared" si="0"/>
         <v>1|8</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
@@ -4026,9 +4023,6 @@
       <c r="I26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2|8</v>
-      </c>
-      <c r="J26" t="s">
-        <v>67</v>
       </c>
       <c r="K26" s="8">
         <v>0</v>
@@ -5058,7 +5052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F085E56-5D81-4888-86BA-1691E4E9A276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDADBD7A-50AC-42CE-8C90-7F5D16016053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="510" windowWidth="25545" windowHeight="14775" activeTab="1" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="22080" yWindow="2550" windowWidth="25545" windowHeight="14775" activeTab="2" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="90">
   <si>
     <t>cc</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Change the RIT of Slice 0 or 1 with left or right Tempo Fader</t>
   </si>
   <si>
-    <t>Remove both Slices and create new Slice A and Slice B</t>
-  </si>
-  <si>
     <t>Jump through the different predefined step width to make the frequency change</t>
   </si>
   <si>
@@ -300,6 +297,15 @@
   </si>
   <si>
     <t>Enable/Disable config mode to select up to 8 different config&lt;nr&gt;-jsons using Hot CUE/Loop and Btns1-4</t>
+  </si>
+  <si>
+    <t>toggleSlices</t>
+  </si>
+  <si>
+    <t>Toggle order of the two slices</t>
+  </si>
+  <si>
+    <t>Remove both Slices and create new (buggy)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1084,7 @@
         <v>0|3</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -2853,7 +2859,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$66</xm:f>
+            <xm:f>functions!$A$2:$A$67</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -2867,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F356390-C5A1-4956-8118-11B48E316739}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,7 +5044,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A2D9150-9195-4181-AAD2-A5D7BB7BA7B9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$66</xm:f>
+            <xm:f>functions!$A$2:$A$67</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -5050,10 +5056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5080,7 +5086,7 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,7 +5094,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,7 +5174,7 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5176,7 +5182,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,7 +5190,7 @@
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,7 +5198,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5200,31 +5206,39 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
-        <v>85</v>
+      <c r="D22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDADBD7A-50AC-42CE-8C90-7F5D16016053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABE0AA-59D7-4E55-A3B1-9203C27E1935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="2550" windowWidth="25545" windowHeight="14775" activeTab="2" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="10110" yWindow="3420" windowWidth="25545" windowHeight="15585" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="94">
   <si>
     <t>cc</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>Remove both Slices and create new (buggy)</t>
+  </si>
+  <si>
+    <t>fadeSO2R</t>
+  </si>
+  <si>
+    <t>Fader complete Left=R1 Both ears. Fader complete Right=R2 Both ears. Fader in between: R1=Left, R2=Right</t>
+  </si>
+  <si>
+    <t>fadeSO2RMix</t>
+  </si>
+  <si>
+    <t>Like fadeSO2R, but in between fadePan behavoir</t>
   </si>
 </sst>
 </file>
@@ -682,6 +694,2197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f>E1&amp;"|"&amp;F1</f>
+        <v>1|8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f t="shared" ref="I2:I51" si="0">E2&amp;"|"&amp;F2</f>
+        <v>1|9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <v>127</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>127</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>127</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>127</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>127</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>127</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|15</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>127</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|16</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>127</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>127</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>127</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3">
+        <v>127</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
+        <v>127</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>127</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="8">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3">
+        <v>127</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3">
+        <v>127</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6|19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3">
+        <v>127</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>127</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3">
+        <v>127</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3">
+        <v>127</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>127</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>127</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>127</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="8">
+        <v>2</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>127</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3">
+        <v>127</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3">
+        <v>127</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|15</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3">
+        <v>16</v>
+      </c>
+      <c r="G33" s="3">
+        <v>127</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|16</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3">
+        <v>127</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="8">
+        <v>2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3">
+        <v>127</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>127</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="3">
+        <v>127</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="8">
+        <v>2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3">
+        <v>127</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>17</v>
+      </c>
+      <c r="G39" s="3">
+        <v>127</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="8">
+        <v>2</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3">
+        <v>127</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="8">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3">
+        <v>127</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7|19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="8">
+        <v>2</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="3">
+        <v>127</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3">
+        <v>127</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3">
+        <v>127</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3">
+        <v>35</v>
+      </c>
+      <c r="G45" s="3">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|35</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3">
+        <v>35</v>
+      </c>
+      <c r="G46" s="3">
+        <v>127</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|35</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3">
+        <v>127</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|17</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3">
+        <v>17</v>
+      </c>
+      <c r="G48" s="3">
+        <v>127</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|17</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3">
+        <v>18</v>
+      </c>
+      <c r="G49" s="3">
+        <v>127</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1|18</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3">
+        <v>18</v>
+      </c>
+      <c r="G50" s="3">
+        <v>127</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2|18</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0|0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
+          <x14:formula1>
+            <xm:f>functions!$A$2:$A$69</xm:f>
+          </x14:formula1>
+          <xm:sqref>J51 J1:J49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F356390-C5A1-4956-8118-11B48E316739}">
+  <dimension ref="A1:R51"/>
+  <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
@@ -858,9 +3061,6 @@
         <f t="shared" si="0"/>
         <v>1|8</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
@@ -1842,9 +4042,6 @@
         <f t="shared" si="0"/>
         <v>2|8</v>
       </c>
-      <c r="J26" t="s">
-        <v>67</v>
-      </c>
       <c r="K26" s="8">
         <v>0</v>
       </c>
@@ -2842,2192 +5039,7 @@
         <v>0|0</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F485914A-B60F-4164-B1CA-5A2A7FA4A8F9}">
-          <x14:formula1>
-            <xm:f>functions!$A$2:$A$67</xm:f>
-          </x14:formula1>
-          <xm:sqref>J51 J1:J49</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F356390-C5A1-4956-8118-11B48E316739}">
-  <dimension ref="A1:R51"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="str">
-        <f>E1&amp;"|"&amp;F1</f>
-        <v>1|8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4">
-        <v>0</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4" t="str">
-        <f t="shared" ref="I2:I51" si="0">E2&amp;"|"&amp;F2</f>
-        <v>1|9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3">
-        <v>127</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|8</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>127</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="8">
-        <v>3</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>127</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>127</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>127</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0|3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="8">
-        <v>2</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <v>127</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|15</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3">
-        <v>127</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|16</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>127</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3">
-        <v>127</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="8">
-        <v>2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
-        <v>127</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="3">
-        <v>127</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="8">
-        <v>2</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3">
-        <v>127</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="8">
-        <v>2</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3">
-        <v>127</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="8">
-        <v>2</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3">
-        <v>127</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="8">
-        <v>2</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3">
-        <v>127</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>6|19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="8">
-        <v>2</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="3">
-        <v>127</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0|3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
-        <v>127</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3">
-        <v>127</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3">
-        <v>127</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="3">
-        <v>10</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|10</v>
-      </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>127</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|8</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>127</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="8">
-        <v>3</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3">
-        <v>6</v>
-      </c>
-      <c r="G28" s="3">
-        <v>127</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="8">
-        <v>2</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|7</v>
-      </c>
-      <c r="J29" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="8">
-        <v>2</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3">
-        <v>127</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3">
-        <v>127</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="8">
-        <v>2</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3">
-        <v>15</v>
-      </c>
-      <c r="G32" s="3">
-        <v>127</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|15</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="3">
-        <v>16</v>
-      </c>
-      <c r="G33" s="3">
-        <v>127</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|16</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3">
-        <v>127</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="8">
-        <v>2</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="3">
-        <v>127</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="8">
-        <v>2</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3">
-        <v>127</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="8">
-        <v>1</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="3">
-        <v>127</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|3</v>
-      </c>
-      <c r="J37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="8">
-        <v>2</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3">
-        <v>16</v>
-      </c>
-      <c r="G38" s="3">
-        <v>127</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|16</v>
-      </c>
-      <c r="J38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K38" s="8">
-        <v>2</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3">
-        <v>17</v>
-      </c>
-      <c r="G39" s="3">
-        <v>127</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|17</v>
-      </c>
-      <c r="J39" t="s">
-        <v>64</v>
-      </c>
-      <c r="K39" s="8">
-        <v>2</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="3">
-        <v>18</v>
-      </c>
-      <c r="G40" s="3">
-        <v>127</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|18</v>
-      </c>
-      <c r="J40" t="s">
-        <v>64</v>
-      </c>
-      <c r="K40" s="8">
-        <v>2</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="3">
-        <v>19</v>
-      </c>
-      <c r="G41" s="3">
-        <v>127</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>7|19</v>
-      </c>
-      <c r="J41" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41" s="8">
-        <v>2</v>
-      </c>
-      <c r="L41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="3">
-        <v>127</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0|4</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3">
-        <v>127</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="3">
-        <v>127</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3">
-        <v>35</v>
-      </c>
-      <c r="G45" s="3">
-        <v>127</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|35</v>
-      </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="3">
-        <v>35</v>
-      </c>
-      <c r="G46" s="3">
-        <v>127</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|35</v>
-      </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="3">
-        <v>17</v>
-      </c>
-      <c r="G47" s="3">
-        <v>127</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|17</v>
-      </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="3">
-        <v>17</v>
-      </c>
-      <c r="G48" s="3">
-        <v>127</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|17</v>
-      </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="3">
-        <v>18</v>
-      </c>
-      <c r="G49" s="3">
-        <v>127</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1|18</v>
-      </c>
-      <c r="K49" s="8">
-        <v>0</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="3">
-        <v>18</v>
-      </c>
-      <c r="G50" s="3">
-        <v>127</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>2|18</v>
-      </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0|0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="K51" s="8">
         <v>0</v>
@@ -5044,7 +5056,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A2D9150-9195-4181-AAD2-A5D7BB7BA7B9}">
           <x14:formula1>
-            <xm:f>functions!$A$2:$A$67</xm:f>
+            <xm:f>functions!$A$2:$A$69</xm:f>
           </x14:formula1>
           <xm:sqref>J51 J1:J49</xm:sqref>
         </x14:dataValidation>
@@ -5056,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,121 +5135,137 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>84</v>
       </c>
     </row>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABE0AA-59D7-4E55-A3B1-9203C27E1935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAF1DA-6318-4E8B-8119-B9432229EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="3420" windowWidth="25545" windowHeight="15585" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="10110" yWindow="3420" windowWidth="25545" windowHeight="15585" activeTab="2" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -5070,202 +5070,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
     </row>

--- a/public/hercules.xlsx
+++ b/public/hercules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Electron\remoteHercules\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAF1DA-6318-4E8B-8119-B9432229EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1968DDE-1BF5-4D38-8DFC-6C37282635F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="3420" windowWidth="25545" windowHeight="15585" activeTab="2" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
+    <workbookView xWindow="67380" yWindow="1875" windowWidth="25140" windowHeight="18345" xr2:uid="{34B49229-1ECB-4DC7-BFE8-A0B06FFFBA25}"/>
   </bookViews>
   <sheets>
     <sheet name="midimap" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="96">
   <si>
     <t>cc</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>Like fadeSO2R, but in between fadePan behavoir</t>
+  </si>
+  <si>
+    <t>xit</t>
+  </si>
+  <si>
+    <t>Change the XIT of Slice 0 or 1 with left or right Tempo Fader (uses same BW configured as rit)</t>
   </si>
 </sst>
 </file>
@@ -694,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956A4D3-4253-45EA-9BF7-F7A3D3B9B38F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5068,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731D5E7-1A5C-4C46-A916-A5AC3FB36FB7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,11 +5316,21 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
     </row>
